--- a/data/trans_dic/P36B13_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1241364560696919</v>
+        <v>0.1247684562341863</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1182897453239732</v>
+        <v>0.1180790487191267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05013591076853027</v>
+        <v>0.05126585137365358</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03292912360865913</v>
+        <v>0.03378006786257803</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09139094230764365</v>
+        <v>0.09042296698123001</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07514710680316726</v>
+        <v>0.07504677711669476</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1676773197760802</v>
+        <v>0.1674734034922176</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2000282607461269</v>
+        <v>0.2017872713583527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0791786118705516</v>
+        <v>0.07808289849067418</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06247943402269459</v>
+        <v>0.06303115383795414</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1149466048548391</v>
+        <v>0.1152319848761813</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1164942317329777</v>
+        <v>0.1149279440770992</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.09502488833335095</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.05532545851747279</v>
+        <v>0.05532545851747278</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09356859166161592</v>
+        <v>0.09282997547894389</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05153912459287937</v>
+        <v>0.05290053130666546</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06416482238192697</v>
+        <v>0.06359351025634814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03096324260350201</v>
+        <v>0.03014763780837556</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08215503316237095</v>
+        <v>0.08246282592108711</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04499758488217826</v>
+        <v>0.04489178141339578</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1331250649033865</v>
+        <v>0.1333084835305023</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09197558120882876</v>
+        <v>0.09564559592732444</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1003684674487154</v>
+        <v>0.09829835011845281</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05665498070489777</v>
+        <v>0.05401246297994342</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1088559708364829</v>
+        <v>0.108817003593087</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06698576717277747</v>
+        <v>0.06670198694237028</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.1086638016232536</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.0517322358845499</v>
+        <v>0.05173223588454991</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.097759727109569</v>
+        <v>0.09693310156336928</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05113882750290914</v>
+        <v>0.05210980468333826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07884451959478241</v>
+        <v>0.07932615735099392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02239490755162955</v>
+        <v>0.02323772743279185</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09323595255059644</v>
+        <v>0.0934444594491938</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04105378503513675</v>
+        <v>0.04079727290470789</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1425041142336094</v>
+        <v>0.1425501278206296</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09209787719442603</v>
+        <v>0.09132389873261339</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1213683453372766</v>
+        <v>0.1212075519937682</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04658106070055015</v>
+        <v>0.04736304166823772</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.125254817595365</v>
+        <v>0.1255053839832603</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06389288850372356</v>
+        <v>0.06379601372100081</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.1114655182077196</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0430744714110982</v>
+        <v>0.04307447141109821</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.07539382908943142</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08624526795720849</v>
+        <v>0.08761714780326561</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0293149720714667</v>
+        <v>0.02952147297318365</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0553352832049878</v>
+        <v>0.05196467676472411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02474968177947339</v>
+        <v>0.02479236317922395</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07723139779249658</v>
+        <v>0.07658746104740491</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03048262666809393</v>
+        <v>0.02910614451716978</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.144386481016572</v>
+        <v>0.1423880965239885</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06269629367426272</v>
+        <v>0.06248381015173544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.101262603956448</v>
+        <v>0.09988485817976948</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05440112249011789</v>
+        <v>0.053569481086335</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1126778274202218</v>
+        <v>0.1132983476566041</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05141136505166404</v>
+        <v>0.05117420275043835</v>
       </c>
     </row>
     <row r="16">
@@ -946,13 +946,13 @@
         <v>0.07764459925950415</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03859276062909992</v>
+        <v>0.03859276062909993</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1005814824317003</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.0562968770227584</v>
+        <v>0.05629687702275841</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1140022761564446</v>
+        <v>0.1126740390070076</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06498559962564758</v>
+        <v>0.06449343491795588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06800777499064795</v>
+        <v>0.0686969497121179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03275913723985052</v>
+        <v>0.03283772995771368</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09234716453826007</v>
+        <v>0.09361947462903408</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05035014289252503</v>
+        <v>0.05027694653706126</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.13690256850837</v>
+        <v>0.1367034769539808</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08569261556352317</v>
+        <v>0.08656792459513492</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08640752693599371</v>
+        <v>0.08672571100886992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04598054199202118</v>
+        <v>0.04613957249284478</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1078417436216428</v>
+        <v>0.1080405376785637</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06289025357303694</v>
+        <v>0.06311192770310443</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>139274</v>
+        <v>139983</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>58996</v>
+        <v>58891</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>62915</v>
+        <v>64333</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20497</v>
+        <v>21027</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>217221</v>
+        <v>214920</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>84255</v>
+        <v>84143</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>188124</v>
+        <v>187895</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>99762</v>
+        <v>100639</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>99361</v>
+        <v>97986</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38891</v>
+        <v>39235</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>273209</v>
+        <v>273887</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>130614</v>
+        <v>128857</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>84590</v>
+        <v>83923</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49440</v>
+        <v>50746</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>63955</v>
+        <v>63385</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>34488</v>
+        <v>33579</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>156158</v>
+        <v>156743</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>93285</v>
+        <v>93065</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>120351</v>
+        <v>120517</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>88230</v>
+        <v>91750</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>100040</v>
+        <v>97976</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>63104</v>
+        <v>60161</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>206910</v>
+        <v>206836</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>138869</v>
+        <v>138280</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>79893</v>
+        <v>79218</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>53487</v>
+        <v>54503</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>60519</v>
+        <v>60888</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23401</v>
+        <v>24282</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>147761</v>
+        <v>148092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>85838</v>
+        <v>85302</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>116460</v>
+        <v>116498</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>96327</v>
+        <v>95517</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>93159</v>
+        <v>93035</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>48675</v>
+        <v>49492</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>198505</v>
+        <v>198902</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>133592</v>
+        <v>133389</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43421</v>
+        <v>44112</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28557</v>
+        <v>28758</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26794</v>
+        <v>25162</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22393</v>
+        <v>22432</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>76280</v>
+        <v>75644</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>57274</v>
+        <v>54688</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>72694</v>
+        <v>71687</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>61074</v>
+        <v>60867</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49033</v>
+        <v>48366</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>49221</v>
+        <v>48468</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>111289</v>
+        <v>111902</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>96597</v>
+        <v>96151</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>381531</v>
+        <v>377086</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>226024</v>
+        <v>224312</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>238258</v>
+        <v>240673</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>120751</v>
+        <v>121041</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>632587</v>
+        <v>641302</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>360713</v>
+        <v>360188</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>458171</v>
+        <v>457505</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>298044</v>
+        <v>301088</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>302720</v>
+        <v>303835</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>169485</v>
+        <v>170071</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>738726</v>
+        <v>740088</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>450551</v>
+        <v>452139</v>
       </c>
     </row>
     <row r="24">
